--- a/result/TrailATR/summary_NIKKEI_M5_2020-2024_3.xlsx
+++ b/result/TrailATR/summary_NIKKEI_M5_2020-2024_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,10 +532,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -554,45 +554,111 @@
         <v>2024</v>
       </c>
       <c r="G2" t="n">
+        <v>80</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60</v>
+      </c>
+      <c r="J2" t="n">
+        <v>500</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-456</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-4139</v>
+      </c>
+      <c r="M2" t="n">
+        <v>18760</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3683</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-827</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1882</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.1963219616204691</v>
+      </c>
+      <c r="R2" t="n">
+        <v>76.86241479011413</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1868869936034115</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G3" t="n">
         <v>50</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H3" t="n">
         <v>1.8</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I3" t="n">
         <v>70</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J3" t="n">
         <v>250</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K3" t="n">
         <v>-20002</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L3" t="n">
         <v>-11148</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M3" t="n">
         <v>20761</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N3" t="n">
         <v>-8854</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O3" t="n">
         <v>-633</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P3" t="n">
         <v>2387</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q3" t="n">
         <v>-0.4264727132604402</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R3" t="n">
         <v>72.31357759561398</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S3" t="n">
         <v>-10</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T3" t="n">
         <v>0.2102018207215452</v>
       </c>
     </row>

--- a/result/TrailATR/summary_NIKKEI_M5_2020-2024_3.xlsx
+++ b/result/TrailATR/summary_NIKKEI_M5_2020-2024_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,6 +662,72 @@
         <v>0.2102018207215452</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>500</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-23855</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-12849</v>
+      </c>
+      <c r="M4" t="n">
+        <v>35816</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-11006</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-1081</v>
+      </c>
+      <c r="P4" t="n">
+        <v>849</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.3072928300201028</v>
+      </c>
+      <c r="R4" t="n">
+        <v>56.41053963474163</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-10</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.251340183158365</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
